--- a/Result_Translator/V1/File/20230507/sample/AF_Template.xlsx
+++ b/Result_Translator/V1/File/20230507/sample/AF_Template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96061329-EA1A-4092-802C-E56416377593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,9 +82,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -114,14 +114,20 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1280753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -153,19 +159,25 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>161923</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4733925" cy="1031629"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1790700" y="161923"/>
+          <a:off x="1171575" y="161923"/>
           <a:ext cx="4733925" cy="1031629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -225,7 +237,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -333,6 +351,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -368,6 +403,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,43 +595,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
+    <row r="1" spans="1:15" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Result_Translator/V1/File/20230507/sample/AF_Template.xlsx
+++ b/Result_Translator/V1/File/20230507/sample/AF_Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96061329-EA1A-4092-802C-E56416377593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBE85F9-ED5C-4F75-8FAE-B6174612CD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,15 +109,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1280753</xdr:rowOff>
+      <xdr:rowOff>647874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -146,8 +146,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="123825" y="95250"/>
-          <a:ext cx="1238250" cy="1185503"/>
+          <a:off x="38100" y="9526"/>
+          <a:ext cx="666750" cy="638348"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -158,12 +158,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>161923</xdr:rowOff>
+      <xdr:rowOff>19048</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4733925" cy="1031629"/>
+    <xdr:ext cx="4733925" cy="843693"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="TextBox 4">
@@ -177,8 +177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1171575" y="161923"/>
-          <a:ext cx="4733925" cy="1031629"/>
+          <a:off x="561975" y="19048"/>
+          <a:ext cx="4733925" cy="843693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -207,14 +207,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="3200"/>
+            <a:rPr lang="en-US" sz="2400"/>
             <a:t>Excercise Title: Excercise</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="2800"/>
+            <a:rPr lang="en-US" sz="2400"/>
             <a:t>dd/mm/yy</a:t>
           </a:r>
         </a:p>
@@ -224,16 +224,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>29190</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1123950</xdr:rowOff>
+      <xdr:rowOff>542925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -262,8 +262,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6562725" y="238125"/>
-          <a:ext cx="3057525" cy="885825"/>
+          <a:off x="4905990" y="38100"/>
+          <a:ext cx="1742460" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -596,10 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +628,8 @@
       <c r="O1" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>